--- a/Cas pratique - Excel - Maintenance info/TP - Maintenance informatique.xlsx
+++ b/Cas pratique - Excel - Maintenance info/TP - Maintenance informatique.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geoffroy\Documents\cours\Prepa cours ETL - IUT\_tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geoffroy\Documents\exercices\i1_infra_etl\Cas pratique - Excel - Maintenance info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE46031B-2EE0-448F-AA0E-5B7A711D1AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F283A45-84B3-4233-9693-340C3AAEFE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B147D4D9-0BD1-422E-83F5-0D9795613BBD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{B147D4D9-0BD1-422E-83F5-0D9795613BBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Enoncé TP" sheetId="3" r:id="rId1"/>
@@ -29,14 +29,34 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
   <si>
@@ -326,6 +346,9 @@
   </si>
   <si>
     <t>(3.3) MAINTENANCE PRESTATAIRE</t>
+  </si>
+  <si>
+    <t>002</t>
   </si>
   <si>
     <r>
@@ -337,7 +360,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Récupération de la date dans le tableau principal
+      <t xml:space="preserve">1) Récupération de la date dans le tableau principal
 </t>
     </r>
     <r>
@@ -364,7 +387,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Déterminer si le matériel doit être contrôlé pour maintenance
+      <t xml:space="preserve">2) Déterminer si le matériel doit être contrôlé pour maintenance
 </t>
     </r>
     <r>
@@ -408,9 +431,6 @@
 2)Créez une nouvelle colonne « responsable maintenance » qui retournera « Maintenance externe » si le matériel est une imprimante laser, un scanner, une photocopieuse, un écran supplémentaire, un ordinateur portable. Dans les autres cas la colonne retournera « Maintenance interne »
 3)Créer une nouvelle colonne « Maintenance prestataire » qui remontera « Oui » dans le cas où le matériel a été délivré il y a plus d’un an et le responsable de la maintenance est le prestataire</t>
     </r>
-  </si>
-  <si>
-    <t>002</t>
   </si>
 </sst>
 </file>
@@ -576,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -591,14 +611,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -608,11 +622,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -935,7 +1037,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -945,337 +1047,337 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC46DAD-1C78-46F0-9DDB-A386A339027A}">
   <dimension ref="C2:K30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.54296875" customWidth="1"/>
     <col min="2" max="2" width="1" customWidth="1"/>
     <col min="11" max="11" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-    </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-    </row>
-    <row r="30" spans="3:11" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C2" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30" spans="3:11" ht="147.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1290,18 +1392,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6946C428-7660-417D-8FEC-671E8B943985}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1312,254 +1414,338 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="str">
+        <f>_xlfn.CONCAT("ÉLÉMENT",A2)</f>
+        <v>ÉLÉMENT0001</v>
+      </c>
       <c r="C2" s="11">
         <v>43965</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="str">
+        <f t="shared" ref="B3:B29" si="0">_xlfn.CONCAT("ÉLÉMENT",A3)</f>
+        <v>ÉLÉMENT0002</v>
+      </c>
       <c r="C3" s="11">
         <v>44607</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0003</v>
+      </c>
       <c r="C4" s="11">
         <v>43813</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0004</v>
+      </c>
       <c r="C5" s="11">
         <v>43972</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0005</v>
+      </c>
       <c r="C6" s="11">
         <v>43763</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0006</v>
+      </c>
       <c r="C7" s="11">
         <v>43940</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0007</v>
+      </c>
       <c r="C8" s="11">
         <v>43870</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0008</v>
+      </c>
       <c r="C9" s="11">
         <v>43491</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0009</v>
+      </c>
       <c r="C10" s="11">
         <v>43594</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0011</v>
+      </c>
       <c r="C11" s="11">
         <v>43540</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0012</v>
+      </c>
       <c r="C12" s="11">
         <v>43570</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0013</v>
+      </c>
       <c r="C13" s="11">
         <v>44836</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0014</v>
+      </c>
       <c r="C14" s="11">
         <v>44675</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0015</v>
+      </c>
       <c r="C15" s="11">
         <v>43488</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0016</v>
+      </c>
       <c r="C16" s="11">
         <v>43640</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0017</v>
+      </c>
       <c r="C17" s="11">
         <v>43500</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0018</v>
+      </c>
       <c r="C18" s="11">
         <v>43900</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0019</v>
+      </c>
       <c r="C19" s="11">
         <v>43260</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0020</v>
+      </c>
       <c r="C20" s="11">
         <v>43450</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0021</v>
+      </c>
       <c r="C21" s="11">
         <v>44702</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0022</v>
+      </c>
       <c r="C22" s="11">
         <v>43707</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0024</v>
+      </c>
       <c r="C23" s="11">
         <v>43635</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0025</v>
+      </c>
       <c r="C24" s="11">
         <v>43962</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0026</v>
+      </c>
       <c r="C25" s="11">
         <v>43962</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT002</v>
+      </c>
       <c r="C26" s="11">
         <v>43254</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0028</v>
+      </c>
       <c r="C27" s="11">
         <v>44652</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0029</v>
+      </c>
       <c r="C28" s="11">
         <v>43557</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0030</v>
+      </c>
       <c r="C29" s="13">
         <v>43841</v>
       </c>
@@ -1577,28 +1763,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F78F6B-377F-49F8-A370-DF1CD21437B9}">
   <dimension ref="B2:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="21.81640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.26953125" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.26953125" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.453125" customWidth="1"/>
+    <col min="13" max="13" width="29.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1608,29 +1794,29 @@
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1640,9 +1826,36 @@
       <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E3" s="21">
+        <f>VLOOKUP(B3,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43965</v>
+      </c>
+      <c r="F3" s="21">
+        <f>IFERROR(E3,"-")</f>
+        <v>43965</v>
+      </c>
+      <c r="G3" s="24">
+        <f ca="1">YEARFRAC(F3,TODAY())</f>
+        <v>2.8888888888888888</v>
+      </c>
+      <c r="H3" s="24">
+        <f ca="1">IFERROR(G3,"-")</f>
+        <v>2.8888888888888888</v>
+      </c>
+      <c r="I3" s="26" t="str">
+        <f ca="1">IF(H3&gt;1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+      <c r="J3" s="26" t="str" cm="1">
+        <f t="array" ref="J3">_xlfn.SWITCH(C3,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="K3" s="26" t="str">
+        <f ca="1">IF(AND(I3="Oui",J3="Maintenance externe"),"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1652,9 +1865,36 @@
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E4" s="21">
+        <f>VLOOKUP(B4,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>44607</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" ref="F4:F32" si="0">IFERROR(E4,"-")</f>
+        <v>44607</v>
+      </c>
+      <c r="G4" s="24">
+        <f t="shared" ref="G4:G32" ca="1" si="1">YEARFRAC(F4,TODAY())</f>
+        <v>1.1361111111111111</v>
+      </c>
+      <c r="H4" s="24">
+        <f t="shared" ref="H4:H32" ca="1" si="2">IFERROR(G4,"-")</f>
+        <v>1.1361111111111111</v>
+      </c>
+      <c r="I4" s="26" t="str">
+        <f t="shared" ref="I4:I32" ca="1" si="3">IF(H4&gt;1,"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+      <c r="J4" s="26" t="str" cm="1">
+        <f t="array" ref="J4">_xlfn.SWITCH(C4,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="K4" s="26" t="str">
+        <f t="shared" ref="K4:K32" ca="1" si="4">IF(AND(I4="Oui",J4="Maintenance externe"),"Oui","Non")</f>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1664,9 +1904,36 @@
       <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E5" s="21">
+        <f>VLOOKUP(B5,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43813</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="0"/>
+        <v>43813</v>
+      </c>
+      <c r="G5" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.3055555555555554</v>
+      </c>
+      <c r="H5" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.3055555555555554</v>
+      </c>
+      <c r="I5" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J5" s="26" t="str" cm="1">
+        <f t="array" ref="J5">_xlfn.SWITCH(C5,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="K5" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1676,9 +1943,36 @@
       <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E6" s="21">
+        <f>VLOOKUP(B6,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43972</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="0"/>
+        <v>43972</v>
+      </c>
+      <c r="G6" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.8694444444444445</v>
+      </c>
+      <c r="H6" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.8694444444444445</v>
+      </c>
+      <c r="I6" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J6" s="26" t="str" cm="1">
+        <f t="array" ref="J6">_xlfn.SWITCH(C6,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="K6" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1688,9 +1982,36 @@
       <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E7" s="21">
+        <f>VLOOKUP(B7,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43763</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" si="0"/>
+        <v>43763</v>
+      </c>
+      <c r="G7" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.4416666666666669</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.4416666666666669</v>
+      </c>
+      <c r="I7" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J7" s="26" t="str" cm="1">
+        <f t="array" ref="J7">_xlfn.SWITCH(C7,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="K7" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Non</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1700,9 +2021,36 @@
       <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E8" s="21">
+        <f>VLOOKUP(B8,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43940</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="0"/>
+        <v>43940</v>
+      </c>
+      <c r="G8" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9583333333333335</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.9583333333333335</v>
+      </c>
+      <c r="I8" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J8" s="26" t="str" cm="1">
+        <f t="array" ref="J8">_xlfn.SWITCH(C8,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="K8" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1712,9 +2060,36 @@
       <c r="D9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E9" s="21">
+        <f>VLOOKUP(B9,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43870</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="0"/>
+        <v>43870</v>
+      </c>
+      <c r="G9" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.1527777777777777</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.1527777777777777</v>
+      </c>
+      <c r="I9" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J9" s="26" t="str" cm="1">
+        <f t="array" ref="J9">_xlfn.SWITCH(C9,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="K9" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Non</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1724,9 +2099,36 @@
       <c r="D10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E10" s="21">
+        <f>VLOOKUP(B10,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43491</v>
+      </c>
+      <c r="F10" s="21">
+        <f t="shared" si="0"/>
+        <v>43491</v>
+      </c>
+      <c r="G10" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.1888888888888891</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.1888888888888891</v>
+      </c>
+      <c r="I10" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J10" s="26" t="str" cm="1">
+        <f t="array" ref="J10">_xlfn.SWITCH(C10,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="K10" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1736,12 +2138,39 @@
       <c r="D11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="M11" s="20" t="s">
+      <c r="E11" s="21">
+        <f>VLOOKUP(B11,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43594</v>
+      </c>
+      <c r="F11" s="21">
+        <f t="shared" si="0"/>
+        <v>43594</v>
+      </c>
+      <c r="G11" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.9027777777777777</v>
+      </c>
+      <c r="H11" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.9027777777777777</v>
+      </c>
+      <c r="I11" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J11" s="26" t="str" cm="1">
+        <f t="array" ref="J11">_xlfn.SWITCH(C11,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="K11" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Oui</v>
+      </c>
+      <c r="M11" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1751,10 +2180,40 @@
       <c r="D12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E12" s="21" t="e">
+        <f>VLOOKUP(B12,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G12" s="24" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H12" s="24" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="I12" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J12" s="26" t="str" cm="1">
+        <f t="array" ref="J12">_xlfn.SWITCH(C12,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="K12" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Non</v>
+      </c>
+      <c r="M12" s="17" t="str" cm="1">
+        <f t="array" ref="M12:M22">_xlfn.UNIQUE(C3:C32)</f>
+        <v>chaise</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
@@ -1764,10 +2223,39 @@
       <c r="D13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="21">
+        <f>VLOOKUP(B13,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43540</v>
+      </c>
+      <c r="F13" s="21">
+        <f t="shared" si="0"/>
+        <v>43540</v>
+      </c>
+      <c r="G13" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.05</v>
+      </c>
+      <c r="H13" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.05</v>
+      </c>
+      <c r="I13" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J13" s="26" t="str" cm="1">
+        <f t="array" ref="J13">_xlfn.SWITCH(C13,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="K13" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Oui</v>
+      </c>
+      <c r="M13" s="17" t="str">
+        <v>imprimante laser</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
@@ -1777,10 +2265,39 @@
       <c r="D14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E14" s="21">
+        <f>VLOOKUP(B14,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43570</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="shared" si="0"/>
+        <v>43570</v>
+      </c>
+      <c r="G14" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.9694444444444446</v>
+      </c>
+      <c r="H14" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.9694444444444446</v>
+      </c>
+      <c r="I14" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J14" s="26" t="str" cm="1">
+        <f t="array" ref="J14">_xlfn.SWITCH(C14,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="K14" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Non</v>
+      </c>
+      <c r="M14" s="17" t="str">
+        <v>scanner</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -1790,10 +2307,39 @@
       <c r="D15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="21">
+        <f>VLOOKUP(B15,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>44836</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="0"/>
+        <v>44836</v>
+      </c>
+      <c r="G15" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="H15" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="I15" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Non</v>
+      </c>
+      <c r="J15" s="26" t="str" cm="1">
+        <f t="array" ref="J15">_xlfn.SWITCH(C15,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="K15" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Non</v>
+      </c>
+      <c r="M15" s="17" t="str">
+        <v>cafetière</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
@@ -1803,10 +2349,39 @@
       <c r="D16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="M16" s="21"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="21">
+        <f>VLOOKUP(B16,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>44675</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" si="0"/>
+        <v>44675</v>
+      </c>
+      <c r="G16" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="H16" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="I16" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Non</v>
+      </c>
+      <c r="J16" s="26" t="str" cm="1">
+        <f t="array" ref="J16">_xlfn.SWITCH(C16,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="K16" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Non</v>
+      </c>
+      <c r="M16" s="17" t="str">
+        <v>table</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
@@ -1816,10 +2391,39 @@
       <c r="D17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="M17" s="21"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E17" s="21">
+        <f>VLOOKUP(B17,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43488</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" si="0"/>
+        <v>43488</v>
+      </c>
+      <c r="G17" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.197222222222222</v>
+      </c>
+      <c r="H17" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.197222222222222</v>
+      </c>
+      <c r="I17" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J17" s="26" t="str" cm="1">
+        <f t="array" ref="J17">_xlfn.SWITCH(C17,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="K17" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Non</v>
+      </c>
+      <c r="M17" s="17" t="str">
+        <v>photocopieuse</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
@@ -1829,10 +2433,39 @@
       <c r="D18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E18" s="21">
+        <f>VLOOKUP(B18,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43640</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="0"/>
+        <v>43640</v>
+      </c>
+      <c r="G18" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.7777777777777777</v>
+      </c>
+      <c r="H18" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.7777777777777777</v>
+      </c>
+      <c r="I18" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J18" s="26" t="str" cm="1">
+        <f t="array" ref="J18">_xlfn.SWITCH(C18,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="K18" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Oui</v>
+      </c>
+      <c r="M18" s="17" t="str">
+        <v>écran supplémentaire</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>42</v>
       </c>
@@ -1842,10 +2475,39 @@
       <c r="D19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="M19" s="21"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E19" s="21">
+        <f>VLOOKUP(B19,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43500</v>
+      </c>
+      <c r="F19" s="21">
+        <f t="shared" si="0"/>
+        <v>43500</v>
+      </c>
+      <c r="G19" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="H19" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="I19" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J19" s="26" t="str" cm="1">
+        <f t="array" ref="J19">_xlfn.SWITCH(C19,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="K19" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Oui</v>
+      </c>
+      <c r="M19" s="17" t="str">
+        <v>tableau blanc</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>43</v>
       </c>
@@ -1855,10 +2517,39 @@
       <c r="D20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="M20" s="21"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E20" s="21">
+        <f>VLOOKUP(B20,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43900</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="0"/>
+        <v>43900</v>
+      </c>
+      <c r="G20" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.0666666666666669</v>
+      </c>
+      <c r="H20" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0666666666666669</v>
+      </c>
+      <c r="I20" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J20" s="26" t="str" cm="1">
+        <f t="array" ref="J20">_xlfn.SWITCH(C20,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="K20" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Non</v>
+      </c>
+      <c r="M20" s="17" t="str">
+        <v>papier à lettres</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>45</v>
       </c>
@@ -1868,10 +2559,39 @@
       <c r="D21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E21" s="21">
+        <f>VLOOKUP(B21,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43260</v>
+      </c>
+      <c r="F21" s="21">
+        <f t="shared" si="0"/>
+        <v>43260</v>
+      </c>
+      <c r="G21" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.8194444444444446</v>
+      </c>
+      <c r="H21" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.8194444444444446</v>
+      </c>
+      <c r="I21" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J21" s="26" t="str" cm="1">
+        <f t="array" ref="J21">_xlfn.SWITCH(C21,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="K21" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Non</v>
+      </c>
+      <c r="M21" s="17" t="str">
+        <v>chiffon à poussière</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>47</v>
       </c>
@@ -1881,10 +2601,39 @@
       <c r="D22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="M22" s="22"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E22" s="21">
+        <f>VLOOKUP(B22,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43450</v>
+      </c>
+      <c r="F22" s="21">
+        <f t="shared" si="0"/>
+        <v>43450</v>
+      </c>
+      <c r="G22" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.3</v>
+      </c>
+      <c r="H22" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.3</v>
+      </c>
+      <c r="I22" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J22" s="26" t="str" cm="1">
+        <f t="array" ref="J22">_xlfn.SWITCH(C22,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="K22" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Non</v>
+      </c>
+      <c r="M22" s="18" t="str">
+        <v>ordinateur portable</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>48</v>
       </c>
@@ -1894,9 +2643,36 @@
       <c r="D23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="19"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E23" s="21">
+        <f>VLOOKUP(B23,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>44702</v>
+      </c>
+      <c r="F23" s="21">
+        <f t="shared" si="0"/>
+        <v>44702</v>
+      </c>
+      <c r="G23" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.86944444444444446</v>
+      </c>
+      <c r="H23" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.86944444444444446</v>
+      </c>
+      <c r="I23" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Non</v>
+      </c>
+      <c r="J23" s="26" t="str" cm="1">
+        <f t="array" ref="J23">_xlfn.SWITCH(C23,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="K23" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Non</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>49</v>
       </c>
@@ -1906,9 +2682,36 @@
       <c r="D24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="19"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E24" s="21">
+        <f>VLOOKUP(B24,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43707</v>
+      </c>
+      <c r="F24" s="21">
+        <f t="shared" si="0"/>
+        <v>43707</v>
+      </c>
+      <c r="G24" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.5944444444444446</v>
+      </c>
+      <c r="H24" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.5944444444444446</v>
+      </c>
+      <c r="I24" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J24" s="26" t="str" cm="1">
+        <f t="array" ref="J24">_xlfn.SWITCH(C24,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="K24" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>51</v>
       </c>
@@ -1918,9 +2721,36 @@
       <c r="D25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="19"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="21" t="e">
+        <f>VLOOKUP(B25,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F25" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G25" s="24" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H25" s="24" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="I25" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J25" s="26" t="str" cm="1">
+        <f t="array" ref="J25">_xlfn.SWITCH(C25,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="K25" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Non</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>52</v>
       </c>
@@ -1930,9 +2760,36 @@
       <c r="D26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="19"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="21">
+        <f>VLOOKUP(B26,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43635</v>
+      </c>
+      <c r="F26" s="21">
+        <f t="shared" si="0"/>
+        <v>43635</v>
+      </c>
+      <c r="G26" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.7916666666666665</v>
+      </c>
+      <c r="H26" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.7916666666666665</v>
+      </c>
+      <c r="I26" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J26" s="26" t="str" cm="1">
+        <f t="array" ref="J26">_xlfn.SWITCH(C26,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="K26" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>53</v>
       </c>
@@ -1942,9 +2799,36 @@
       <c r="D27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="19"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E27" s="21">
+        <f>VLOOKUP(B27,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43962</v>
+      </c>
+      <c r="F27" s="21">
+        <f t="shared" si="0"/>
+        <v>43962</v>
+      </c>
+      <c r="G27" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.8972222222222221</v>
+      </c>
+      <c r="H27" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.8972222222222221</v>
+      </c>
+      <c r="I27" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J27" s="26" t="str" cm="1">
+        <f t="array" ref="J27">_xlfn.SWITCH(C27,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="K27" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Non</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -1954,9 +2838,36 @@
       <c r="D28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="19"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E28" s="21">
+        <f>VLOOKUP(B28,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43962</v>
+      </c>
+      <c r="F28" s="21">
+        <f t="shared" si="0"/>
+        <v>43962</v>
+      </c>
+      <c r="G28" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.8972222222222221</v>
+      </c>
+      <c r="H28" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.8972222222222221</v>
+      </c>
+      <c r="I28" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J28" s="26" t="str" cm="1">
+        <f t="array" ref="J28">_xlfn.SWITCH(C28,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="K28" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Non</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
         <v>55</v>
       </c>
@@ -1966,9 +2877,36 @@
       <c r="D29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="19"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E29" s="21" t="e">
+        <f>VLOOKUP(B29,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F29" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G29" s="24" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H29" s="24" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="I29" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J29" s="26" t="str" cm="1">
+        <f t="array" ref="J29">_xlfn.SWITCH(C29,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="K29" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
         <v>56</v>
       </c>
@@ -1978,9 +2916,36 @@
       <c r="D30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="19"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E30" s="21">
+        <f>VLOOKUP(B30,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>44652</v>
+      </c>
+      <c r="F30" s="21">
+        <f t="shared" si="0"/>
+        <v>44652</v>
+      </c>
+      <c r="G30" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0083333333333333</v>
+      </c>
+      <c r="H30" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0083333333333333</v>
+      </c>
+      <c r="I30" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J30" s="26" t="str" cm="1">
+        <f t="array" ref="J30">_xlfn.SWITCH(C30,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="K30" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Non</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
         <v>57</v>
       </c>
@@ -1990,9 +2955,36 @@
       <c r="D31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="19"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E31" s="21">
+        <f>VLOOKUP(B31,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43557</v>
+      </c>
+      <c r="F31" s="21">
+        <f t="shared" si="0"/>
+        <v>43557</v>
+      </c>
+      <c r="G31" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.0055555555555555</v>
+      </c>
+      <c r="H31" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.0055555555555555</v>
+      </c>
+      <c r="I31" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J31" s="26" t="str" cm="1">
+        <f t="array" ref="J31">_xlfn.SWITCH(C31,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="K31" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32" s="7" t="s">
         <v>58</v>
       </c>
@@ -2002,14 +2994,49 @@
       <c r="D32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="19"/>
+      <c r="E32" s="21">
+        <f>VLOOKUP(B32,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43841</v>
+      </c>
+      <c r="F32" s="21">
+        <f t="shared" si="0"/>
+        <v>43841</v>
+      </c>
+      <c r="G32" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2305555555555556</v>
+      </c>
+      <c r="H32" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.2305555555555556</v>
+      </c>
+      <c r="I32" s="26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Oui</v>
+      </c>
+      <c r="J32" s="26" t="str" cm="1">
+        <f t="array" ref="J32">_xlfn.SWITCH(C32,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="K32" s="26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Non</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K3:K32">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I32">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2024,15 +3051,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D3B40254CCAD4F4DB9C9C68E413794DF" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2aeafd693a26295ca1608391418ffef4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c191e861-ca77-4be2-9cd3-792aee8b8b5e" xmlns:ns4="cce717fc-1ede-428e-a6c2-005dbc01d41f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a01f5c371c90485a4615d2aeeb347d07" ns3:_="" ns4:_="">
     <xsd:import namespace="c191e861-ca77-4be2-9cd3-792aee8b8b5e"/>
@@ -2249,6 +3267,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCBB88AC-DE44-48DE-B3AA-300E1D7EEC9E}">
   <ds:schemaRefs>
@@ -2259,14 +3286,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCD83082-98BA-41FF-B11C-BF66B195BBA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64425965-C52D-4641-8666-B5B7818B47C6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2283,4 +3302,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCD83082-98BA-41FF-B11C-BF66B195BBA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>